--- a/gams/python/data/matchingRAData_qMax_Pos_Q1.xlsx
+++ b/gams/python/data/matchingRAData_qMax_Pos_Q1.xlsx
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>q1</t>
+          <t>q0</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -533,7 +533,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>q2</t>
+          <t>q1</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -573,7 +573,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>q3</t>
+          <t>q2</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -613,7 +613,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>q4</t>
+          <t>q3</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -653,7 +653,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>q5</t>
+          <t>q4</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -693,7 +693,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>q6</t>
+          <t>q5</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -733,7 +733,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>q7</t>
+          <t>q6</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -773,7 +773,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>q8</t>
+          <t>q7</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -813,7 +813,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>q9</t>
+          <t>q8</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -853,7 +853,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>q10</t>
+          <t>q9</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -893,7 +893,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>q11</t>
+          <t>q10</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -933,7 +933,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>q12</t>
+          <t>q11</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -973,7 +973,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>q13</t>
+          <t>q12</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1013,7 +1013,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>q14</t>
+          <t>q13</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1053,7 +1053,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>q15</t>
+          <t>q14</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1093,7 +1093,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>q16</t>
+          <t>q15</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1133,7 +1133,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>q17</t>
+          <t>q16</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1173,7 +1173,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>q18</t>
+          <t>q17</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1213,7 +1213,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>q19</t>
+          <t>q18</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1253,7 +1253,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>q20</t>
+          <t>q19</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1293,7 +1293,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>q21</t>
+          <t>q20</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1333,7 +1333,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>q22</t>
+          <t>q21</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1373,7 +1373,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>q23</t>
+          <t>q22</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1413,7 +1413,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>q24</t>
+          <t>q23</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1453,7 +1453,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>q25</t>
+          <t>q24</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1493,7 +1493,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>q26</t>
+          <t>q25</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1533,7 +1533,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>q27</t>
+          <t>q26</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1573,7 +1573,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>q28</t>
+          <t>q27</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1613,7 +1613,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>q29</t>
+          <t>q28</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1653,7 +1653,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>q30</t>
+          <t>q29</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1693,7 +1693,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>q31</t>
+          <t>q30</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1733,7 +1733,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>q32</t>
+          <t>q31</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1773,7 +1773,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>q33</t>
+          <t>q32</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1813,7 +1813,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>q34</t>
+          <t>q33</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1853,7 +1853,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>q35</t>
+          <t>q34</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1893,7 +1893,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>q36</t>
+          <t>q35</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1933,7 +1933,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>q37</t>
+          <t>q36</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1973,7 +1973,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>q38</t>
+          <t>q37</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -2013,7 +2013,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>q39</t>
+          <t>q38</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -2053,7 +2053,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>q40</t>
+          <t>q39</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2093,7 +2093,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>q41</t>
+          <t>q40</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -2133,7 +2133,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>q42</t>
+          <t>q41</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -2173,7 +2173,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>q43</t>
+          <t>q42</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -2213,7 +2213,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>q44</t>
+          <t>q43</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -2253,7 +2253,7 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>q45</t>
+          <t>q44</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -2293,7 +2293,7 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>q46</t>
+          <t>q45</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -2333,7 +2333,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>q47</t>
+          <t>q46</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -2373,7 +2373,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>q48</t>
+          <t>q47</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -2413,7 +2413,7 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>q49</t>
+          <t>q48</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -2453,7 +2453,7 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>q50</t>
+          <t>q49</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -2493,7 +2493,7 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>q51</t>
+          <t>q50</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -2533,7 +2533,7 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>q52</t>
+          <t>q51</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -2573,7 +2573,7 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>q53</t>
+          <t>q52</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -2613,7 +2613,7 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>q54</t>
+          <t>q53</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -2653,7 +2653,7 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>q55</t>
+          <t>q54</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -2693,7 +2693,7 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>q56</t>
+          <t>q55</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -2733,7 +2733,7 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>q57</t>
+          <t>q56</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -2773,7 +2773,7 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>q58</t>
+          <t>q57</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -2813,7 +2813,7 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>q59</t>
+          <t>q58</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -2853,7 +2853,7 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>q60</t>
+          <t>q59</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -2893,7 +2893,7 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>q61</t>
+          <t>q60</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -2933,7 +2933,7 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>q62</t>
+          <t>q61</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -2973,7 +2973,7 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>q63</t>
+          <t>q62</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -3013,7 +3013,7 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>q64</t>
+          <t>q63</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -3053,7 +3053,7 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>q65</t>
+          <t>q64</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -3093,7 +3093,7 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>q66</t>
+          <t>q65</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -3133,7 +3133,7 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>q67</t>
+          <t>q66</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -3173,7 +3173,7 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>q68</t>
+          <t>q67</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -3213,7 +3213,7 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>q69</t>
+          <t>q68</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -3253,7 +3253,7 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>q70</t>
+          <t>q69</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -3293,7 +3293,7 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>q71</t>
+          <t>q70</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -3333,7 +3333,7 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>q72</t>
+          <t>q71</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -3373,7 +3373,7 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>q73</t>
+          <t>q72</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -3413,7 +3413,7 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>q74</t>
+          <t>q73</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -3453,7 +3453,7 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>q75</t>
+          <t>q74</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -3493,7 +3493,7 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>q76</t>
+          <t>q75</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -3533,7 +3533,7 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>q77</t>
+          <t>q76</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -3573,7 +3573,7 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>q78</t>
+          <t>q77</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -3613,7 +3613,7 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>q79</t>
+          <t>q78</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -3653,7 +3653,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>q80</t>
+          <t>q79</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -3693,7 +3693,7 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>q81</t>
+          <t>q80</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -3733,7 +3733,7 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>q82</t>
+          <t>q81</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -3773,7 +3773,7 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>q83</t>
+          <t>q82</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -3813,7 +3813,7 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>q84</t>
+          <t>q83</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -3853,7 +3853,7 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>q85</t>
+          <t>q84</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -3893,7 +3893,7 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>q86</t>
+          <t>q85</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -3933,7 +3933,7 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>q87</t>
+          <t>q86</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -3973,7 +3973,7 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>q88</t>
+          <t>q87</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -4013,7 +4013,7 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>q89</t>
+          <t>q88</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -4053,7 +4053,7 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>q90</t>
+          <t>q89</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -4093,7 +4093,7 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>q91</t>
+          <t>q90</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -4133,7 +4133,7 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>q92</t>
+          <t>q91</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -4173,7 +4173,7 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>q93</t>
+          <t>q92</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -4213,7 +4213,7 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>q94</t>
+          <t>q93</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -4253,7 +4253,7 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>q95</t>
+          <t>q94</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -4293,7 +4293,7 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>q96</t>
+          <t>q95</t>
         </is>
       </c>
       <c r="B97" t="n">
